--- a/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/true_res_model_v5.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/set_up_model/true_res_model_v5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="310">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -1072,16 +1081,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1090,8 +1099,8 @@
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -1126,60 +1135,74 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1199,236 +1222,605 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="S9" activeCellId="0" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>71</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>87</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>88</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>96</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>99</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>102</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>104</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>105</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>106</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>107</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.99</v>
@@ -1440,9 +1832,9 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.99</v>
@@ -1454,9 +1846,9 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -1468,9 +1860,9 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.99</v>
@@ -1482,9 +1874,9 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.99</v>
@@ -1496,9 +1888,9 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.99</v>
@@ -1510,9 +1902,9 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.99</v>
@@ -1524,9 +1916,9 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.99</v>
@@ -1556,247 +1948,634 @@
   </sheetPr>
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>24</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>55</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>59</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -1808,9 +2587,9 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.99</v>
@@ -1822,9 +2601,9 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.99</v>
@@ -1836,9 +2615,9 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.99</v>
@@ -1850,9 +2629,9 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.99</v>
@@ -1864,9 +2643,9 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.99</v>
@@ -1878,9 +2657,9 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0.99</v>
@@ -1892,9 +2671,9 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.99</v>
@@ -1930,95 +2709,95 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>1</v>
@@ -2026,16 +2805,16 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>1</v>
@@ -2043,16 +2822,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>2</v>
@@ -2060,16 +2839,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>1</v>
@@ -2077,16 +2856,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>2</v>
@@ -2097,16 +2876,16 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>1</v>
@@ -2114,16 +2893,16 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>1</v>
@@ -2131,19 +2910,19 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>2</v>
@@ -2151,19 +2930,19 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>2</v>
@@ -2171,16 +2950,16 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>1</v>
@@ -2188,16 +2967,16 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>1</v>
@@ -2205,19 +2984,19 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>2</v>
@@ -2228,22 +3007,22 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>2</v>
@@ -2254,22 +3033,22 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>265</v>
-      </c>
       <c r="D15" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>2</v>
@@ -2280,7 +3059,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -2354,22 +3133,22 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>2</v>
@@ -2377,22 +3156,22 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>2</v>
@@ -2400,16 +3179,16 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>2</v>
@@ -2417,16 +3196,16 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>2</v>
@@ -2434,16 +3213,16 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>2</v>
@@ -2451,16 +3230,16 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>2</v>
@@ -2468,16 +3247,16 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>2</v>
@@ -2485,19 +3264,19 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>2</v>
@@ -2505,16 +3284,16 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>3</v>
@@ -2522,16 +3301,16 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>2</v>
@@ -2539,16 +3318,16 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>4</v>
@@ -2556,16 +3335,16 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>4</v>
@@ -2573,16 +3352,16 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>2</v>
@@ -2590,16 +3369,16 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>4</v>
@@ -2610,16 +3389,16 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>1</v>
@@ -2627,16 +3406,16 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>1</v>
@@ -2644,16 +3423,16 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>2</v>
@@ -2661,16 +3440,16 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>4</v>
@@ -2681,16 +3460,16 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>1</v>
@@ -2698,16 +3477,16 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>1</v>
@@ -2715,10 +3494,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>1</v>
@@ -2726,10 +3505,10 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>1</v>
@@ -2737,10 +3516,10 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>1</v>
@@ -2748,16 +3527,16 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>1</v>
@@ -2765,16 +3544,16 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>1</v>
@@ -2782,16 +3561,16 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>1</v>
@@ -2799,7 +3578,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -2873,7 +3652,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -2947,7 +3726,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -3021,7 +3800,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -3095,7 +3874,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -3169,7 +3948,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -3243,7 +4022,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -3317,7 +4096,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -3413,170 +4192,170 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AY1" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-1</v>
@@ -3734,7 +4513,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -3892,7 +4671,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -4050,7 +4829,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -4208,7 +4987,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -4366,7 +5145,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -4524,7 +5303,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -4682,7 +5461,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -4840,7 +5619,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -4998,7 +5777,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -5156,7 +5935,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -5314,7 +6093,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -5472,7 +6251,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -5630,7 +6409,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -5788,7 +6567,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -5946,7 +6725,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -6104,7 +6883,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -6262,7 +7041,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -6420,7 +7199,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -6578,7 +7357,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -6736,7 +7515,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -6894,7 +7673,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -7052,7 +7831,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -7210,7 +7989,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -7368,7 +8147,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -7526,7 +8305,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -7684,7 +8463,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -7842,7 +8621,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -8000,7 +8779,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -8158,7 +8937,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -8316,7 +9095,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -8474,7 +9253,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -8632,7 +9411,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -8790,7 +9569,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -8948,7 +9727,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -9106,7 +9885,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -9264,7 +10043,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -9422,7 +10201,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -9580,7 +10359,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -9738,7 +10517,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -9896,7 +10675,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -10054,7 +10833,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -10212,7 +10991,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -10370,7 +11149,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -10528,7 +11307,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -10686,7 +11465,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -10844,7 +11623,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -11002,7 +11781,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -11160,7 +11939,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -11340,23 +12119,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -11367,7 +12146,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -11378,7 +12157,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -11389,7 +12168,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -11400,7 +12179,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -11411,7 +12190,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -11422,7 +12201,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -11433,7 +12212,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -11444,7 +12223,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -11455,7 +12234,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -11466,7 +12245,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -11477,7 +12256,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -11488,7 +12267,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -11499,7 +12278,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -11510,7 +12289,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -11521,7 +12300,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -11532,7 +12311,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -11543,7 +12322,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -11554,7 +12333,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -11565,7 +12344,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -11576,7 +12355,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -11587,7 +12366,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -11598,7 +12377,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -11609,7 +12388,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -11620,7 +12399,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -11631,7 +12410,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -11642,7 +12421,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -11653,7 +12432,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -11664,7 +12443,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -11675,7 +12454,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -11686,7 +12465,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -11697,7 +12476,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -11708,7 +12487,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -11719,7 +12498,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -11730,7 +12509,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -11741,7 +12520,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -11752,7 +12531,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -11763,7 +12542,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -11774,7 +12553,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -11785,7 +12564,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -11796,7 +12575,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -11807,7 +12586,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -11818,7 +12597,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -11829,7 +12608,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -11841,7 +12620,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -11853,7 +12632,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -11865,7 +12644,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -11877,7 +12656,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -11889,7 +12668,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -11901,7 +12680,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -11913,7 +12692,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="n">
         <f aca="false">10^-9</f>
@@ -11942,32 +12721,32 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="H38" activeCellId="0" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.54"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -11975,10 +12754,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -11986,10 +12765,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -11997,10 +12776,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
@@ -12008,10 +12787,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -12019,10 +12798,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -12030,10 +12809,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -12041,10 +12820,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -12052,10 +12831,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -12063,10 +12842,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -12074,10 +12853,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -12085,10 +12864,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -12096,10 +12875,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -12107,10 +12886,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -12118,10 +12897,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -12129,10 +12908,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -12140,10 +12919,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
@@ -12151,10 +12930,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -12162,10 +12941,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -12173,10 +12952,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
@@ -12184,10 +12963,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
@@ -12195,10 +12974,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
@@ -12206,10 +12985,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
@@ -12217,10 +12996,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
@@ -12228,10 +13007,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
@@ -12239,10 +13018,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
@@ -12250,10 +13029,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
@@ -12261,10 +13040,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
@@ -12272,10 +13051,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
@@ -12283,10 +13062,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
@@ -12294,10 +13073,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
@@ -12305,10 +13084,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
@@ -12316,10 +13095,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
@@ -12327,10 +13106,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
@@ -12338,10 +13117,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
@@ -12349,10 +13128,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>1</v>
@@ -12360,10 +13139,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
@@ -12371,10 +13150,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
@@ -12382,10 +13161,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>1</v>
@@ -12393,10 +13172,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
@@ -12404,10 +13183,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -12415,10 +13194,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
@@ -12426,10 +13205,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
@@ -12437,7 +13216,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -12448,7 +13227,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -12459,7 +13238,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -12470,7 +13249,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -12481,7 +13260,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -12492,7 +13271,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -12503,7 +13282,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0</v>
@@ -12514,7 +13293,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0</v>
@@ -12547,364 +13326,364 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.54"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -12918,7 +13697,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -12932,7 +13711,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -12946,7 +13725,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -12960,7 +13739,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -12974,7 +13753,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -12988,7 +13767,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -13002,7 +13781,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -13032,273 +13811,273 @@
   </sheetPr>
   <dimension ref="A2:A53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -13325,267 +14104,267 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -13612,23 +14391,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -13639,7 +14418,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -13650,7 +14429,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -13661,7 +14440,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -13672,7 +14451,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -13683,7 +14462,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -13694,7 +14473,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -13705,7 +14484,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -13716,7 +14495,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -13727,7 +14506,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -13738,7 +14517,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -13749,7 +14528,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -13760,7 +14539,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -13771,7 +14550,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -13782,7 +14561,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -13793,7 +14572,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -13804,7 +14583,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -13815,7 +14594,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -13826,7 +14605,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -13837,7 +14616,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -13848,7 +14627,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -13859,7 +14638,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -13870,7 +14649,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -13881,7 +14660,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -13892,7 +14671,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -13903,7 +14682,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -13914,7 +14693,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -13925,7 +14704,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -13936,7 +14715,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -13947,7 +14726,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -13958,7 +14737,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -13969,7 +14748,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -13980,7 +14759,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -13991,7 +14770,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -14002,7 +14781,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -14013,7 +14792,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -14024,7 +14803,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -14035,7 +14814,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -14046,7 +14825,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -14057,7 +14836,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -14068,7 +14847,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -14079,7 +14858,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -14090,7 +14869,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -14101,7 +14880,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -14112,7 +14891,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -14123,7 +14902,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -14134,7 +14913,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -14145,7 +14924,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -14156,7 +14935,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -14189,24 +14968,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.54"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>960</v>
@@ -14217,7 +14996,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>630</v>
@@ -14228,7 +15007,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>630</v>
@@ -14239,7 +15018,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4790</v>
@@ -14250,7 +15029,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>892</v>
@@ -14261,7 +15040,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>720</v>
@@ -14272,7 +15051,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-357</v>
@@ -14283,7 +15062,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>360</v>
@@ -14294,7 +15073,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>360</v>
@@ -14305,7 +15084,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -14316,7 +15095,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>720</v>
@@ -14327,7 +15106,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>585</v>
@@ -14338,7 +15117,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>292.5</v>
@@ -14349,7 +15128,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>292.5</v>
@@ -14360,7 +15139,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1170</v>
@@ -14371,7 +15150,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>295</v>
@@ -14382,7 +15161,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>295</v>
@@ -14393,7 +15172,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>440</v>
@@ -14404,7 +15183,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>150</v>
@@ -14415,7 +15194,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>150</v>
@@ -14426,7 +15205,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>10</v>
@@ -14437,7 +15216,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>150</v>
@@ -14448,7 +15227,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6110</v>
@@ -14459,7 +15238,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>6110</v>
@@ -14470,7 +15249,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>570</v>
@@ -14481,7 +15260,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>460</v>
@@ -14492,7 +15271,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>460</v>
@@ -14503,7 +15282,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>460</v>
@@ -14514,7 +15293,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>5110</v>
@@ -14525,7 +15304,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>5110</v>
@@ -14536,7 +15315,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>4360</v>
@@ -14547,7 +15326,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>4360</v>
@@ -14558,7 +15337,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>3890</v>
@@ -14569,7 +15348,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>700</v>
@@ -14580,7 +15359,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>700</v>
@@ -14591,7 +15370,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2230</v>
@@ -14602,7 +15381,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>5337.5</v>
@@ -14613,7 +15392,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>312.5</v>
@@ -14624,7 +15403,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>10000</v>
@@ -14635,7 +15414,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>470</v>
@@ -14646,7 +15425,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>700</v>
@@ -14657,7 +15436,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>30</v>
@@ -14668,7 +15447,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>20</v>
@@ -14679,7 +15458,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>290</v>
@@ -14690,7 +15469,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>10</v>
@@ -14701,7 +15480,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>90</v>
@@ -14712,7 +15491,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>140</v>
@@ -14723,7 +15502,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>50</v>
@@ -14734,7 +15513,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>750</v>
